--- a/va_facility_data_2025-02-20/Goldsboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goldsboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Goldsboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goldsboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R69c2bee818ad4f61829592c0d8003b1f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f607e0e123e4a55a5d88e8dc6927d44"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4d073daf5f84c159108e3a249a467fc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4c62b7db4d4d426baab59259a2ad1ea7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R432fc26b91b5458b8bde64d4fe36057f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8ef13ba70210469aa8284324940139ab"/>
   </x:sheets>
 </x:workbook>
 </file>
